--- a/pledge/administration/static/excel-template.xlsx
+++ b/pledge/administration/static/excel-template.xlsx
@@ -9,16 +9,25 @@
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="D1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="S1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="D" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">D!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">D1!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">S!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">S1!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">S!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">D1!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">S!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">S!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">S!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">S1!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">S1!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">S1!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">S1!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">D!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">D!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">D!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">D!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="8">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -53,10 +62,7 @@
     <t xml:space="preserve">ALSHAMARY, OTHMAN SAAD</t>
   </si>
   <si>
-    <t xml:space="preserve">ALSHAREEF, MOSAID MAZIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMASHA, AHMAD ABDULLAH</t>
+    <t xml:space="preserve">عبدالله صالح عبدالرحمن عبدالعزيز</t>
   </si>
 </sst>
 </file>
@@ -66,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,19 +93,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -124,7 +117,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -133,6 +126,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,12 +137,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -159,7 +160,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,57 +184,49 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,290 +238,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB3A2C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF948A54"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF95B3D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD99694"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB3A2C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB3A2C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF948A54"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF95B3D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD99694"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB3A2C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7DEE8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="1"/>
@@ -731,25 +466,25 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="7" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -783,25 +518,1494 @@
         <v>6</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>201543212</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1123456790</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>201543213</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1123456791</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>201543214</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1123456792</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>201543215</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1123456793</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>201543216</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1123456794</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>201543217</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1123456795</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>201543218</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1123456796</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>201543219</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1123456797</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>201543220</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1123456798</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>201543221</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1123456799</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>201543222</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1123456800</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>201543223</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1123456801</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>201543224</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1123456802</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>201543225</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1123456803</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>201543226</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1123456804</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>201543227</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1123456805</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>201543228</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>1123456806</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>201543229</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1123456807</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>201543230</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1123456808</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>201543231</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1123456809</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <v>201543232</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1123456810</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>201543233</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1123456811</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>201543234</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1123456812</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <v>201543235</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>1123456813</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>201543236</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>1123456814</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>201543237</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1123456815</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>201543238</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1123456816</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>201543239</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>1123456817</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="n">
+        <v>201543240</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>1123456818</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>201543241</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>1123456819</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>201543242</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>1123456820</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="n">
+        <v>201543243</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>1123456821</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>201543244</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>1123456822</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>201543245</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>1123456823</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F36" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="n">
+        <v>201543246</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>1123456824</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>201543247</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>1123456825</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>201543248</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>1123456826</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>201543249</v>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>1123456827</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="n">
+        <v>201543250</v>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>1123456828</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="n">
+        <v>201543251</v>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>1123456829</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>201543252</v>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>1123456830</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>201543253</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>1123456831</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>201543254</v>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>1123456832</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="n">
+        <v>201543255</v>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>1123456833</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F46" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="n">
+        <v>201543256</v>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>1123456834</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="n">
+        <v>201543257</v>
+      </c>
+      <c r="C48" s="9" t="n">
+        <v>1123456835</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="n">
+        <v>201543258</v>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>1123456836</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F49" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="n">
+        <v>201543259</v>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>1123456837</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="n">
+        <v>201543260</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <v>1123456838</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="n">
+        <v>201543261</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>1123456839</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F52" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="n">
+        <v>201543262</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>1123456840</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F53" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="n">
+        <v>201543263</v>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>1123456841</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="n">
+        <v>201543264</v>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>1123456842</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="n">
+        <v>201543265</v>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>1123456843</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F56" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="n">
+        <v>201543266</v>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>1123456844</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="n">
+        <v>201543267</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>1123456845</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="n">
+        <v>201543268</v>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>1123456846</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F59" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="n">
+        <v>201543269</v>
+      </c>
+      <c r="C60" s="9" t="n">
+        <v>1123456847</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="n">
+        <v>201543270</v>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>1123456848</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="n">
+        <v>201543271</v>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>1123456849</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F62" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="n">
+        <v>201543272</v>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>1123456850</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F63" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="n">
+        <v>201543273</v>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>1123456851</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="n">
+        <v>201543274</v>
+      </c>
+      <c r="C65" s="9" t="n">
+        <v>1123456852</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9" t="n">
+        <v>201543275</v>
+      </c>
+      <c r="C66" s="9" t="n">
+        <v>1123456853</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F66" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="n">
+        <v>201543276</v>
+      </c>
+      <c r="C67" s="9" t="n">
+        <v>1123456854</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="n">
+        <v>201543277</v>
+      </c>
+      <c r="C68" s="9" t="n">
+        <v>1123456855</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="n">
+        <v>201543278</v>
+      </c>
+      <c r="C69" s="9" t="n">
+        <v>1123456856</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F69" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9" t="n">
+        <v>201543279</v>
+      </c>
+      <c r="C70" s="9" t="n">
+        <v>1123456857</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F70" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9" t="n">
+        <v>201543280</v>
+      </c>
+      <c r="C71" s="9" t="n">
+        <v>1123456858</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="n">
+        <v>201543281</v>
+      </c>
+      <c r="C72" s="9" t="n">
+        <v>1123456859</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="n">
+        <v>201543282</v>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>1123456860</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F73" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="n">
+        <v>201543283</v>
+      </c>
+      <c r="C74" s="9" t="n">
+        <v>1123456861</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="n">
+        <v>201543284</v>
+      </c>
+      <c r="C75" s="9" t="n">
+        <v>1123456862</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="n">
+        <v>201543285</v>
+      </c>
+      <c r="C76" s="9" t="n">
+        <v>1123456863</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F76" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2 B2">
+  <conditionalFormatting sqref="D2 B2:B76 D5 D8 D11 D14 D17 D20 D23 D26 D29 D32 D35 D38 D41 D44 D47 D50 D53 D56 D59 D62 D65 D68 D71 D74">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
     </cfRule>
@@ -855,21 +2059,21 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="39.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -897,36 +2101,344 @@
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="n">
-        <v>201543212</v>
-      </c>
-      <c r="C2" s="14" t="n">
+      <c r="B2" s="9" t="n">
+        <v>201643212</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>1123456789</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F2" s="11" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>201643213</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1123456790</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>201643214</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1123456791</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>201643215</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1123456792</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>201643216</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1123456793</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>201643217</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1123456794</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>201643218</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1123456795</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>201643219</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1123456796</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>201643220</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1123456797</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>201643221</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1123456798</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>201643222</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1123456799</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>201643223</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1123456800</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>201643224</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1123456801</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>201643225</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1123456802</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>201643226</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1123456803</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>201643227</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1123456804</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>201643228</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1123456805</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2 D2">
+  <conditionalFormatting sqref="B2:B18">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
     </cfRule>
@@ -961,6 +2473,44 @@
       <formula>ISNUMBER(SEARCH("L2",#ref!))=1</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>ISNUMBER(SEARCH("L1",#ref!))=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D5 D8 D11 D14 D17">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>ISNUMBER(SEARCH("L10",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>ISNUMBER(SEARCH("L9",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>ISNUMBER(SEARCH("L8",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(SEARCH("L7",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>ISNUMBER(SEARCH("L6",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>ISNUMBER(SEARCH("L5",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>ISNUMBER(SEARCH("L4",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>ISNUMBER(SEARCH("L3",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>ISNUMBER(SEARCH("L2",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>ISNUMBER(SEARCH("L1",#ref!))=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -980,26 +2530,27 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="57.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="57.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1014,37 +2565,283 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="12" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="n">
-        <v>201543213</v>
-      </c>
-      <c r="C2" s="14" t="n">
+      <c r="B2" s="9" t="n">
+        <v>201743213</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>1123456789</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>202</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>201743214</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1123456790</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>201743215</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>1123456791</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>201743216</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1123456792</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>201743217</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1123456793</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>201743218</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1123456794</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>201743219</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1123456795</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B9" s="9" t="n">
+        <v>201743220</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1123456796</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>201743221</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1123456797</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>201743222</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>1123456798</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>201743223</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>1123456799</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>201743224</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1123456800</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>201743225</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1123456801</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>201743226</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1123456802</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>201743227</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1123456803</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>201743228</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1123456804</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2 D2">
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
     </cfRule>
@@ -1079,6 +2876,44 @@
       <formula>ISNUMBER(SEARCH("L2",#ref!))=1</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>ISNUMBER(SEARCH("L1",#ref!))=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D5 D8 D11 D14 D17">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>ISNUMBER(SEARCH("L-11",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>ISNUMBER(SEARCH("L10",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>ISNUMBER(SEARCH("L9",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>ISNUMBER(SEARCH("L8",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(SEARCH("L7",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>ISNUMBER(SEARCH("L6",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>ISNUMBER(SEARCH("L5",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>ISNUMBER(SEARCH("L4",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>ISNUMBER(SEARCH("L3",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>ISNUMBER(SEARCH("L2",#ref!))=1</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>ISNUMBER(SEARCH("L1",#ref!))=1</formula>
     </cfRule>
   </conditionalFormatting>
